--- a/Conteos/resumen.xlsx
+++ b/Conteos/resumen.xlsx
@@ -42,10 +42,10 @@
     <t>Hacia</t>
   </si>
   <si>
-    <t>Izq</t>
-  </si>
-  <si>
-    <t>Dere</t>
+    <t>Dere (Este)</t>
+  </si>
+  <si>
+    <t>Izq (Oeste)</t>
   </si>
 </sst>
 </file>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -396,94 +396,94 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B2">
+        <v>410</v>
+      </c>
+      <c r="C2">
+        <v>390</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>400</v>
       </c>
-      <c r="C9">
+      <c r="C3">
+        <v>444</v>
+      </c>
+      <c r="D3">
+        <v>292</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>390</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>230</v>
+      <c r="C4">
+        <v>450</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>400</v>
-      </c>
-      <c r="C10">
-        <v>444</v>
-      </c>
-      <c r="D10">
-        <v>292</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>510</v>
+      </c>
+      <c r="C5">
+        <v>390</v>
+      </c>
+      <c r="D5">
+        <v>470</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>390</v>
-      </c>
-      <c r="C11">
-        <v>450</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>510</v>
-      </c>
-      <c r="C12">
-        <v>390</v>
-      </c>
-      <c r="D12">
-        <v>470</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B6">
         <v>436</v>
       </c>
-      <c r="C13">
+      <c r="C6">
         <v>226</v>
       </c>
-      <c r="D13">
+      <c r="D6">
         <v>177</v>
       </c>
-      <c r="E13">
+      <c r="E6">
         <v>203</v>
       </c>
     </row>
